--- a/asdf.xlsx
+++ b/asdf.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
   <si>
     <t>X</t>
   </si>
@@ -64,6 +64,24 @@
   <si>
     <t>DATA:</t>
   </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>w1/x</t>
+  </si>
+  <si>
+    <t>w2/y</t>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,8 +109,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -100,16 +136,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,11 +418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403177704"/>
-        <c:axId val="403181624"/>
+        <c:axId val="379967408"/>
+        <c:axId val="379968192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403177704"/>
+        <c:axId val="379967408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,12 +479,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403181624"/>
+        <c:crossAx val="379968192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403181624"/>
+        <c:axId val="379968192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -410,7 +541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403177704"/>
+        <c:crossAx val="379967408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -424,7 +555,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -725,11 +855,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403186328"/>
-        <c:axId val="403187896"/>
+        <c:axId val="379971720"/>
+        <c:axId val="379966624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403186328"/>
+        <c:axId val="379971720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,12 +916,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403187896"/>
+        <c:crossAx val="379966624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403187896"/>
+        <c:axId val="379966624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403186328"/>
+        <c:crossAx val="379971720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -862,7 +992,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1163,11 +1292,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403183584"/>
-        <c:axId val="403185152"/>
+        <c:axId val="379972112"/>
+        <c:axId val="379972504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403183584"/>
+        <c:axId val="379972112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,12 +1353,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403185152"/>
+        <c:crossAx val="379972504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403185152"/>
+        <c:axId val="379972504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403183584"/>
+        <c:crossAx val="379972112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1300,7 +1429,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1601,11 +1729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405083576"/>
-        <c:axId val="405084752"/>
+        <c:axId val="379972896"/>
+        <c:axId val="379970152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405083576"/>
+        <c:axId val="379972896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,12 +1790,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405084752"/>
+        <c:crossAx val="379970152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405084752"/>
+        <c:axId val="379970152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,7 +1852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405083576"/>
+        <c:crossAx val="379972896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1732,6 +1860,518 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$B$10:$B$11,Sheet1!$C$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$10:$C$11,Sheet1!$B$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Classifier</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$104:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$104:$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Class2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$108:$D$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$108:$E$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381537400"/>
+        <c:axId val="381533872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381537400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381533872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="381533872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381537400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1965,6 +2605,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3514,6 +4194,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4157,6 +5353,132 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="16478250"/>
+          <a:ext cx="590550" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3657600" y="17259300"/>
+          <a:ext cx="609600" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4423,10 +5745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:E71"/>
+  <dimension ref="A6:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,7 +5929,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -4618,7 +5940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -4637,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -4652,11 +5974,428 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="4">
+        <v>-3</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4">
+        <f>SUMPRODUCT(B79:B81,C79:C81)</f>
+        <v>-2</v>
+      </c>
+      <c r="F79" s="5">
+        <f>IF(E79&gt;0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="4">
+        <v>2</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C81" s="10">
+        <v>1</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="11"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="C87" s="17">
+        <f>B83</f>
+        <v>1</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="6">
+        <f>SUMPRODUCT(B87:B89,C87:C89)</f>
+        <v>1.7</v>
+      </c>
+      <c r="F87" s="7">
+        <f>IF(E87&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C88" s="17">
+        <f>B84</f>
+        <v>1</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C89" s="10">
+        <v>1</v>
+      </c>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="11"/>
+      <c r="H89" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M89" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H90" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="4">
+        <v>-3</v>
+      </c>
+      <c r="J90" s="14">
+        <f>F87</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="4"/>
+      <c r="L90" s="6">
+        <f>SUMPRODUCT(I90:I92,J90:J92)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M90" s="7">
+        <f>IF(L90&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H91" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="4">
+        <v>2</v>
+      </c>
+      <c r="J91" s="14">
+        <f>F93</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="5"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I92" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J92" s="10">
+        <v>1</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="11"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="C93" s="17">
+        <f>B83</f>
+        <v>1</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="6">
+        <f>SUMPRODUCT(B93:B95,C93:C95)</f>
+        <v>3.7</v>
+      </c>
+      <c r="F93" s="7">
+        <f>IF(E93&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="C94" s="17">
+        <f>B84</f>
+        <v>1</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C95" s="10">
+        <v>1</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="11"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <f>B104*D104+B105</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D105" s="3">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <f>B104*D105+B105</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <f>B108*D108+B109</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D109" s="3">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <f>B108*D109+B109</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <f>B104-B111*B112*(B114-(IF(E112,1,0)))</f>
+        <v>-0.4</v>
+      </c>
+      <c r="E112" t="b">
+        <f>(B113-(B104*B112+B105)&gt;=0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <f>B105-B111*(B114-(IF(E112,1,0)))</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
         <v>1</v>
       </c>
     </row>
